--- a/app/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/app/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tudor\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daria\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0331DB1B-C3BD-4056-A528-95608C232CAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC54A1ED-A146-4E4F-9553-D2C04798A47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{A6C6B003-FEA4-44AD-AA4B-7F2971BC26E4}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{A6C6B003-FEA4-44AD-AA4B-7F2971BC26E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,25 +36,25 @@
     <t>Neamtiu Cosmin 732/1</t>
   </si>
   <si>
-    <t>Renaming classes for better code readability</t>
-  </si>
-  <si>
-    <t>More error handling for corner cases</t>
-  </si>
-  <si>
-    <t>Deleteing branches with redundant or useless code in them</t>
-  </si>
-  <si>
-    <t>Change output formating for some of the features</t>
-  </si>
-  <si>
-    <t>Title: BeCruel (Mobile Project)</t>
-  </si>
-  <si>
-    <t>Date: 10.01.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improvments: </t>
+    <t>Titel: BeCruel (Mobile Project)</t>
+  </si>
+  <si>
+    <t>Datum: 10.01.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verbesserungen: </t>
+  </si>
+  <si>
+    <t>Klassennamen umformen für bessere Liesbarkeit des Kodes</t>
+  </si>
+  <si>
+    <t>Mehr Fehlerhandlung für Corner Cases</t>
+  </si>
+  <si>
+    <t>Branch-löschen um Redundanz zu eliminieren um Nutzbarkeit zu verbessern/Kode-Lisibilität-Niveau zu erhöhen</t>
+  </si>
+  <si>
+    <t>Verändern des Output Formatierung  für einige der Features</t>
   </si>
 </sst>
 </file>
@@ -418,13 +418,13 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.109375" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="50.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -444,37 +444,37 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/app/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/app/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daria\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC54A1ED-A146-4E4F-9553-D2C04798A47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A30F90-D4C0-4AC8-ADCB-85ACEB4248B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{A6C6B003-FEA4-44AD-AA4B-7F2971BC26E4}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{A6C6B003-FEA4-44AD-AA4B-7F2971BC26E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Nicolaescu Tudor 732/1</t>
   </si>
@@ -55,6 +55,24 @@
   </si>
   <si>
     <t>Verändern des Output Formatierung  für einige der Features</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C04, C07</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirements ändern um sie an der Anwendung besser anzupassen </t>
   </si>
 </sst>
 </file>
@@ -415,66 +433,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEAD5F6-B75A-43DB-B22D-6CF3F6D2842B}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.109375" customWidth="1"/>
-    <col min="2" max="2" width="50.21875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="50.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
